--- a/config_1.5/fish_2d_fish_server.xlsx
+++ b/config_1.5/fish_2d_fish_server.xlsx
@@ -1719,20 +1719,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",1,0.01,</t>
+    <t>星星boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",1,0.01,</t>
   </si>
 </sst>
 </file>
@@ -8357,8 +8358,8 @@
   <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N183" sqref="N183"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16916,7 +16917,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16964,7 +16965,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17012,7 +17013,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17049,7 +17050,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18426,7 +18427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
